--- a/data/trans_bre/P5_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,16</t>
+          <t>-12,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,56</t>
+          <t>-14,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,95%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,86%</t>
+          <t>-21,7%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -2,24</t>
+          <t>-22,33; -1,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,11; -2,81</t>
+          <t>-25,58; -2,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,38; -3,59</t>
+          <t>-33,26; -2,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,8; -5,89</t>
+          <t>-36,17; -3,99</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>-10,92%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 13,49</t>
+          <t>-8,26; 13,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 7,21</t>
+          <t>-17,0; 7,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 38,69</t>
+          <t>-17,7; 40,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 18,67</t>
+          <t>-35,55; 20,54</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>-3,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 7,22</t>
+          <t>-10,15; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 13,18</t>
+          <t>-5,78; 12,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 18,25</t>
+          <t>-19,93; 18,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 36,28</t>
+          <t>-12,49; 35,77</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>-7,36%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 1,1</t>
+          <t>-14,3; 1,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 4,17</t>
+          <t>-12,29; 5,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 2,23</t>
+          <t>-26,09; 3,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 9,48</t>
+          <t>-23,79; 12,46</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-17,34%</t>
+          <t>-17,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-7,88%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 0,12</t>
+          <t>-18,31; 0,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 5,56</t>
+          <t>-14,6; 5,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,22; -0,39</t>
+          <t>-32,56; 0,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 11,65</t>
+          <t>-26,14; 12,51</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,74</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>-5,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,28%</t>
+          <t>-13,79%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 5,88</t>
+          <t>-11,8; 6,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 2,41</t>
+          <t>-18,33; 2,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 13,83</t>
+          <t>-21,49; 14,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 5,72</t>
+          <t>-32,08; 6,24</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>-9,16%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -0,74</t>
+          <t>-8,97; -1,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -0,78</t>
+          <t>-8,65; -0,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -1,71</t>
+          <t>-17,03; -2,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,12; -1,53</t>
+          <t>-16,69; -0,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-12,17</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-14,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-18,97%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-21,7%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-12.17132864722609</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-15.00847219070557</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.1896947615135562</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2231869525036367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,33; -1,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-25,58; -2,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-33,26; -2,16</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-36,17; -3,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-22.33335788262153</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-26.60167385651396</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3326164766969619</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3708382547174304</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.309549155911687</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-3.074158931653894</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>-0.02161154494438144</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>-0.0504794022844875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-10,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 13,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 7,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,7; 40,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-35,55; 20,54</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.154416983846164</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.183287616037202</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.05245170641037849</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.09995667932693739</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,8%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.260182594792493</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.08442431091426</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1770354821538615</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3444358703315956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 7,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 12,56</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,93; 18,09</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,49; 35,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.84183369608624</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.231466019120475</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.4055521848986372</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1971659713138382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-12,51%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-7,36%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.705966343233878</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.78376502974886</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.03795629416851428</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1159762084830803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 1,78</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 5,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-26,09; 3,93</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-23,79; 12,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.15058620446334</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.713932940357162</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1992688552088612</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1006476431456138</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.077508824920089</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.76827233287187</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1808692392119549</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.4344384874548404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-8,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-17,33%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-7,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-18,31; 0,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,6; 5,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-32,56; 0,84</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-26,14; 12,51</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.373790331328566</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.366852958057082</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1251303059789007</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.09049288555349527</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-7,15</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,15%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-13,79%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-14.29769496172905</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.83835974583891</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2608890247153313</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2449698250383281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; 6,29</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,33; 2,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-21,49; 14,04</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-32,08; 6,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.782663211752668</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.053254859878451</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.03928346577824675</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1203617325355556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-4,72</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-4,54</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-9,47%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-9,16%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-8.948067077122984</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.558319474491935</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.173329026715378</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.08721356349529055</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; -1,13</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-8,65; -0,23</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-17,03; -2,27</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; -0,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.3144182995927</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-14.75817573821396</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.325621146227683</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2567219376935265</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.5762436051280833</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.097782771007386</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.008421483450765307</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.1117450624803719</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-2.517553959799457</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-7.054341619353494</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.05148718248660661</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.131140554531235</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-11.79809807210638</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-18.56225532220681</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2148988943632177</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.3142470356799893</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>6.287643332214691</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.930326028488783</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1404265484538189</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.07576073016153825</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-4.723515119801958</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-4.320655895431347</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.09466418921777905</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.08646954494695393</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.969065129365495</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.528803452963656</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.1702888850981675</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1655306328141542</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-1.131874217675183</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.1256655677253671</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-0.02270289276603527</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>-0.003058695942074544</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
